--- a/SERV_Open8_TSMC_PCB/serv_open8_tsmc_cpl1.xlsx
+++ b/SERV_Open8_TSMC_PCB/serv_open8_tsmc_cpl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Duy\SERV_OPEN8_Measurement\SERV_Open8_TSMC_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487C9D1-E57A-4AA4-B1B8-484372B0094E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D82FA70-6D70-47CB-A42C-9997BB9A68DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="182">
   <si>
     <t>Designator</t>
   </si>
@@ -490,13 +490,91 @@
   </si>
   <si>
     <t>R69</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>R77</t>
+  </si>
+  <si>
+    <t>R78</t>
+  </si>
+  <si>
+    <t>R79</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R80</t>
+  </si>
+  <si>
+    <t>R81</t>
+  </si>
+  <si>
+    <t>R82</t>
+  </si>
+  <si>
+    <t>R88</t>
+  </si>
+  <si>
+    <t>R89</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>3k</t>
+  </si>
+  <si>
+    <t>R90</t>
+  </si>
+  <si>
+    <t>R91</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>TPS76201DBVR</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>HC-49SM8MHZ20PF30PPM</t>
+  </si>
+  <si>
+    <t>HC49SM8MHZ20PF30PPM</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Q13FC1350000400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +606,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -573,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +674,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3103,6 +3199,363 @@
         <v>270</v>
       </c>
     </row>
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A132" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132" s="5">
+        <v>-23</v>
+      </c>
+      <c r="C132" s="5">
+        <v>-98.5</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E132" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A133" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="C133" s="5">
+        <v>51.5</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A134" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="5">
+        <v>13</v>
+      </c>
+      <c r="C134" s="5">
+        <v>51.5</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A135" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="5">
+        <v>-63</v>
+      </c>
+      <c r="C135" s="5">
+        <v>-80</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A136" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="5">
+        <v>-59.5</v>
+      </c>
+      <c r="C136" s="5">
+        <v>-83.5</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A137" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B137" s="5">
+        <v>-31.5</v>
+      </c>
+      <c r="C137" s="5">
+        <v>-80.5</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A138" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="5">
+        <v>-29</v>
+      </c>
+      <c r="C138" s="5">
+        <v>-98.5</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A139" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B139" s="5">
+        <v>-35</v>
+      </c>
+      <c r="C139" s="5">
+        <v>-83</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E139" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A140" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="5">
+        <v>-79.5</v>
+      </c>
+      <c r="C140" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E140" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A141" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="5">
+        <v>62</v>
+      </c>
+      <c r="C141" s="5">
+        <v>-93</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E141" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A142" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="5">
+        <v>-72.5</v>
+      </c>
+      <c r="C142" s="5">
+        <v>-80</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A143" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B143" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="C143" s="5">
+        <v>51.59</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E143" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A144" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144" s="5">
+        <v>-26</v>
+      </c>
+      <c r="C144" s="5">
+        <v>-94</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E144" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A145" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="5">
+        <v>26</v>
+      </c>
+      <c r="C145" s="5">
+        <v>51.5</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A146" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="5">
+        <v>-69.5</v>
+      </c>
+      <c r="C146" s="5">
+        <v>-83.5</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E146" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A147" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="5">
+        <v>-52.5</v>
+      </c>
+      <c r="C147" s="5">
+        <v>-97.5</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A148" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B148" s="5">
+        <v>-26</v>
+      </c>
+      <c r="C148" s="5">
+        <v>-98</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A149" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B149" s="5">
+        <v>-39.5</v>
+      </c>
+      <c r="C149" s="5">
+        <v>-97.5</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A150" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="5">
+        <v>-65</v>
+      </c>
+      <c r="C150" s="5">
+        <v>-97.5</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A151" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B151" s="5">
+        <v>30</v>
+      </c>
+      <c r="C151" s="5">
+        <v>-103.5</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A152" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="5">
+        <v>7</v>
+      </c>
+      <c r="C152" s="5">
+        <v>-104</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="5">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3111,10 +3564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54BD550-ABC0-43B5-B108-2C6D322DE913}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D130"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5719,6 +6172,426 @@
         <v>603</v>
       </c>
     </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131">
+        <v>-23</v>
+      </c>
+      <c r="C131">
+        <v>-98.5</v>
+      </c>
+      <c r="D131">
+        <v>90</v>
+      </c>
+      <c r="E131" t="s">
+        <v>86</v>
+      </c>
+      <c r="F131">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132">
+        <v>6.5</v>
+      </c>
+      <c r="C132">
+        <v>51.5</v>
+      </c>
+      <c r="D132">
+        <v>270</v>
+      </c>
+      <c r="E132" t="s">
+        <v>100</v>
+      </c>
+      <c r="F132">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>51.5</v>
+      </c>
+      <c r="D133">
+        <v>270</v>
+      </c>
+      <c r="E133" t="s">
+        <v>100</v>
+      </c>
+      <c r="F133">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134">
+        <v>-63</v>
+      </c>
+      <c r="C134">
+        <v>-80</v>
+      </c>
+      <c r="D134">
+        <v>270</v>
+      </c>
+      <c r="E134">
+        <v>330</v>
+      </c>
+      <c r="F134">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135">
+        <v>-59.5</v>
+      </c>
+      <c r="C135">
+        <v>-83.5</v>
+      </c>
+      <c r="D135">
+        <v>180</v>
+      </c>
+      <c r="E135" t="s">
+        <v>100</v>
+      </c>
+      <c r="F135">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136">
+        <v>-31.5</v>
+      </c>
+      <c r="C136">
+        <v>-80.5</v>
+      </c>
+      <c r="D136">
+        <v>180</v>
+      </c>
+      <c r="E136">
+        <v>330</v>
+      </c>
+      <c r="F136">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137">
+        <v>-29</v>
+      </c>
+      <c r="C137">
+        <v>-98.5</v>
+      </c>
+      <c r="D137">
+        <v>90</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138">
+        <v>-35</v>
+      </c>
+      <c r="C138">
+        <v>-83</v>
+      </c>
+      <c r="D138">
+        <v>90</v>
+      </c>
+      <c r="E138" t="s">
+        <v>100</v>
+      </c>
+      <c r="F138">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139">
+        <v>-79.5</v>
+      </c>
+      <c r="C139">
+        <v>38.5</v>
+      </c>
+      <c r="D139">
+        <v>270</v>
+      </c>
+      <c r="E139" t="s">
+        <v>100</v>
+      </c>
+      <c r="F139">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140">
+        <v>62</v>
+      </c>
+      <c r="C140">
+        <v>-93</v>
+      </c>
+      <c r="D140">
+        <v>90</v>
+      </c>
+      <c r="E140" t="s">
+        <v>100</v>
+      </c>
+      <c r="F140">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141">
+        <v>-72.5</v>
+      </c>
+      <c r="C141">
+        <v>-80</v>
+      </c>
+      <c r="D141">
+        <v>270</v>
+      </c>
+      <c r="E141">
+        <v>330</v>
+      </c>
+      <c r="F141">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142">
+        <v>19.5</v>
+      </c>
+      <c r="C142">
+        <v>51.59</v>
+      </c>
+      <c r="D142">
+        <v>270</v>
+      </c>
+      <c r="E142" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143">
+        <v>-26</v>
+      </c>
+      <c r="C143">
+        <v>-94</v>
+      </c>
+      <c r="D143">
+        <v>90</v>
+      </c>
+      <c r="E143" t="s">
+        <v>169</v>
+      </c>
+      <c r="F143">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>170</v>
+      </c>
+      <c r="B144">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>51.5</v>
+      </c>
+      <c r="D144">
+        <v>270</v>
+      </c>
+      <c r="E144" t="s">
+        <v>100</v>
+      </c>
+      <c r="F144">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145">
+        <v>-69.5</v>
+      </c>
+      <c r="C145">
+        <v>-83.5</v>
+      </c>
+      <c r="D145">
+        <v>180</v>
+      </c>
+      <c r="E145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F145">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146">
+        <v>-52.5</v>
+      </c>
+      <c r="C146">
+        <v>-97.5</v>
+      </c>
+      <c r="D146">
+        <v>90</v>
+      </c>
+      <c r="E146" t="s">
+        <v>173</v>
+      </c>
+      <c r="F146" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147">
+        <v>-26</v>
+      </c>
+      <c r="C147">
+        <v>-98</v>
+      </c>
+      <c r="D147">
+        <v>90</v>
+      </c>
+      <c r="E147" t="s">
+        <v>173</v>
+      </c>
+      <c r="F147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148">
+        <v>-39.5</v>
+      </c>
+      <c r="C148">
+        <v>-97.5</v>
+      </c>
+      <c r="D148">
+        <v>90</v>
+      </c>
+      <c r="E148" t="s">
+        <v>173</v>
+      </c>
+      <c r="F148" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149">
+        <v>-65</v>
+      </c>
+      <c r="C149">
+        <v>-97.5</v>
+      </c>
+      <c r="D149">
+        <v>90</v>
+      </c>
+      <c r="E149" t="s">
+        <v>173</v>
+      </c>
+      <c r="F149" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>177</v>
+      </c>
+      <c r="B150">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>-103.5</v>
+      </c>
+      <c r="D150">
+        <v>180</v>
+      </c>
+      <c r="E150" t="s">
+        <v>178</v>
+      </c>
+      <c r="F150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>-104</v>
+      </c>
+      <c r="D151">
+        <v>180</v>
+      </c>
+      <c r="E151" t="s">
+        <v>181</v>
+      </c>
+      <c r="F151" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
